--- a/Data/One_month_LWR_data/One_month_LWR_data.xlsx
+++ b/Data/One_month_LWR_data/One_month_LWR_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\One_month_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B313E0-4228-41AB-A542-FF27D380F85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041BEC6B-5494-40BA-9525-5CF775E5DDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1500" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Siganus_fuscescens" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Spratelloides_gracilis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -580,15 +581,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,7 +630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -671,8 +672,12 @@
       <c r="M2" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <f>(AVERAGE(J2:J66)/100)*AVERAGE(K2:K66)</f>
+        <v>0.57858368641784619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -714,8 +719,12 @@
       <c r="M3" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <f>(AVERAGE(K2:K66)-AVERAGE(J2:J66))/AVERAGE(J2:J66)*100</f>
+        <v>-20.037413082316412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -758,7 +767,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -801,7 +810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -844,7 +853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -887,7 +896,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -930,7 +939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -973,7 +982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4007,15 +4016,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1501EF14-B0F6-43C9-9786-B30DC1BC66CE}">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M146"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4056,7 +4065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4098,8 +4107,12 @@
       <c r="M2" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <f>(AVERAGE(J2:J57)/100)*AVERAGE(K2:K57)</f>
+        <v>2.1319914736580352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -4141,8 +4154,12 @@
       <c r="M3" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <f>(AVERAGE(K2:K57)-AVERAGE(J2:J57))/AVERAGE(J2:J57)*100</f>
+        <v>-22.804145170808511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -4185,7 +4202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -4228,7 +4245,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -4271,7 +4288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
@@ -4314,7 +4331,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -4357,7 +4374,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -4400,7 +4417,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
@@ -4443,7 +4460,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -4486,7 +4503,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -4529,7 +4546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -4572,7 +4589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -4615,7 +4632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -4658,7 +4675,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -7183,15 +7200,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDD1E06-75C7-439E-898D-4E21E01F16E0}">
-  <dimension ref="A1:M346"/>
+  <dimension ref="A1:O346"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -7232,7 +7249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7274,8 +7291,12 @@
       <c r="M2" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <f>(AVERAGE(J2:J125)/100)*AVERAGE(K2:K125)</f>
+        <v>2.0014609867834939E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7317,8 +7338,12 @@
       <c r="M3" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <f>(AVERAGE(J2:J125)-AVERAGE(K2:K125))/AVERAGE(J2:J125)*100</f>
+        <v>14.782588790736801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7361,7 +7386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7404,7 +7429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7447,7 +7472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7490,7 +7515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7533,7 +7558,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7576,7 +7601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -7619,7 +7644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7662,7 +7687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7705,7 +7730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -7748,7 +7773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -7791,7 +7816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7834,7 +7859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -14339,15 +14364,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F931B92A-0158-4427-B4F2-3677D6A3B508}">
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -14388,7 +14413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14430,8 +14455,12 @@
       <c r="M2" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <f>(AVERAGE(J2:J81)/100)*AVERAGE(K2:K81)</f>
+        <v>4.3427530524062512E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14473,8 +14502,12 @@
       <c r="M3" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <f>(AVERAGE(J2:J81)-AVERAGE(K2:K81))/AVERAGE(J2:J81)*100</f>
+        <v>27.166426922348407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -14517,7 +14550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -14560,7 +14593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -14603,7 +14636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -14646,7 +14679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -14689,7 +14722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -14732,7 +14765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -14775,7 +14808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14818,7 +14851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -14861,7 +14894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -14904,7 +14937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -14947,7 +14980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -14990,7 +15023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
